--- a/Crawling/crawling_data/week_genie/week_genie_20220110.xlsx
+++ b/Crawling/crawling_data/week_genie/week_genie_20220110.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
   <si>
     <t>날짜</t>
   </si>
@@ -220,15 +220,13 @@
     <t>Still I Love You</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>다시 사랑한다면 (김필 Ver.)</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>너</t>
@@ -655,9 +653,6 @@
   </si>
   <si>
     <t>사랑의 콜센타 PART56</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>사이렌 Remix</t>
@@ -2198,7 +2193,7 @@
         <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2249,7 +2244,7 @@
         <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2266,7 +2261,7 @@
         <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2283,7 +2278,7 @@
         <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2317,7 +2312,7 @@
         <v>153</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2368,7 +2363,7 @@
         <v>155</v>
       </c>
       <c r="E76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2385,7 +2380,7 @@
         <v>156</v>
       </c>
       <c r="E77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2402,7 +2397,7 @@
         <v>157</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2436,7 +2431,7 @@
         <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2453,7 +2448,7 @@
         <v>159</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2470,7 +2465,7 @@
         <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2572,7 +2567,7 @@
         <v>153</v>
       </c>
       <c r="E88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2606,7 +2601,7 @@
         <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2640,7 +2635,7 @@
         <v>134</v>
       </c>
       <c r="E92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2657,7 +2652,7 @@
         <v>168</v>
       </c>
       <c r="E93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2674,7 +2669,7 @@
         <v>142</v>
       </c>
       <c r="E94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2708,7 +2703,7 @@
         <v>170</v>
       </c>
       <c r="E96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2759,7 +2754,7 @@
         <v>109</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2776,7 +2771,7 @@
         <v>172</v>
       </c>
       <c r="E100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2793,7 +2788,7 @@
         <v>173</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
